--- a/Divisão de Tarefas.xlsx
+++ b/Divisão de Tarefas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4DB639-8C3F-4E45-954B-9E4C14596C01}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E335DBB-49AC-4B9F-B1DE-B6D5012403C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Divisão de Tarefas.xlsx
+++ b/Divisão de Tarefas.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E335DBB-49AC-4B9F-B1DE-B6D5012403C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>PROJETO INTEGRADOR</t>
   </si>
@@ -147,19 +146,13 @@
     <t xml:space="preserve">Jefferson </t>
   </si>
   <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>lucas</t>
-  </si>
-  <si>
     <t>Desiron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -715,11 +708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,7 +788,7 @@
     </row>
     <row r="5" spans="1:6" ht="199.5" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>12</v>
@@ -812,7 +805,7 @@
     </row>
     <row r="6" spans="1:6" ht="342">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>15</v>
@@ -829,7 +822,7 @@
     </row>
     <row r="7" spans="1:6" ht="42.75">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>18</v>
@@ -880,7 +873,7 @@
     </row>
     <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>24</v>
